--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Lebanon_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Lebanon_M2.xlsx
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30407.45833333333</v>
+        <v>30407.41666666667</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31138.45833333333</v>
+        <v>31138.41666666667</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
